--- a/Pull Request Here/Non uno Pinata (don't drop items) - 1778821244/Non uno Pinata (don't drop items) - 1778821244.xlsx
+++ b/Pull Request Here/Non uno Pinata (don't drop items) - 1778821244/Non uno Pinata (don't drop items) - 1778821244.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7DD630-E9C8-4AF2-B0E4-A2AB1081EACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82DC8E3-7ED6-47E9-B16B-A0C4B53C3D26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -308,10 +308,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>도축할 때도 위의 규칙을 따르게 함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>- 살해되었을 때:</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -324,7 +320,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">《주의》 화장하려는 시체에 "벗기기" 명령이 예약되면, 아래 설정과는 무관하게 화장하면서 그 시체의 모든 물품을 내립니다. </t>
+    <t>도축할 때도 세부 규칙을 따르게 설정함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">《주의》 시체에 "벗기기" 명령이 예약되어 있으면, 설정과는 무관하게 도축이나 화장시에 그 시체의 모든 물품을 내립니다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -831,7 +831,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -848,7 +848,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1103,7 +1103,7 @@
         <v>86</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
